--- a/data/georgia_census/adjara/shuaxevi/healthcare_staff.xlsx
+++ b/data/georgia_census/adjara/shuaxevi/healthcare_staff.xlsx
@@ -1377,13 +1377,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7332B0E-7499-43BF-ABCA-E1BAD346BF40}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C7B8230-BA83-4BCF-B42F-440FD6C4D138}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF73F38F-3EDB-489F-B555-6A47ED0B45DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D3EBB7-6FFF-4F9D-964F-78447140DE5A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E91EE187-6ED0-482E-848D-1C43659C3E54}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBC73036-BCD6-424D-87B4-B48B7812417B}"/>
 </file>